--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24209900</v>
+      </c>
+      <c r="E8" s="3">
         <v>26210500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25441100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23862900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24418900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26147900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26108600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23569500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29343000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22681500</v>
+      </c>
+      <c r="E9" s="3">
         <v>24593700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23778400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22303200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22810800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24602600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24609700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44374800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27825100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1528400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1616800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1662700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1559700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1608100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1545300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1498900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-20805300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1518000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E14" s="3">
         <v>113300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>90700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>49400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>75300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>227400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-20000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E15" s="3">
         <v>74400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>78600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>81400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>66000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>32000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23967000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25844900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24797400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23392600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23871400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25425900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25646200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23184400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28768300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E18" s="3">
         <v>365600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>643700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>470400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>547500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>722100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>462400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>385100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>574700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-37800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>25000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1092700</v>
+        <v>1062200</v>
       </c>
       <c r="E21" s="3">
-        <v>1199400</v>
+        <v>883100</v>
       </c>
       <c r="F21" s="3">
-        <v>1088500</v>
+        <v>1253700</v>
       </c>
       <c r="G21" s="3">
-        <v>1068000</v>
+        <v>994200</v>
       </c>
       <c r="H21" s="3">
-        <v>1287500</v>
+        <v>1093200</v>
       </c>
       <c r="I21" s="3">
-        <v>944900</v>
-      </c>
-      <c r="J21" s="3">
+        <v>1211600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>964100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1096700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E22" s="3">
         <v>145700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>123100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>108000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>98000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>76400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>79900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>68900</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E23" s="3">
         <v>182100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>520900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>370800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>454700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>670700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>328800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>574700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E24" s="3">
         <v>88700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>92400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>51300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>69900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E26" s="3">
         <v>93400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>428500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>319600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>444100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>365600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>302500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>520800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E27" s="3">
         <v>93400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>428500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>319600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>444100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>365600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>302500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>520800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1306,21 +1366,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-25500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-32000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E32" s="3">
         <v>37800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-25000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E33" s="3">
         <v>93400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>428500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>319600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>444100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>365600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>277100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>488800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E35" s="3">
         <v>93400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>428500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>319600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>444100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>365600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>277100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>488800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1922700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1696600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1472400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1830700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1607600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1628400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1593700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1587100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1174400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,139 +1708,154 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>343900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2718400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2829200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2517700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2192700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2044800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2337500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2698000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2112000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2593800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3785100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3722900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3799800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3396500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3491700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3488800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3599000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2722500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>660100</v>
+      </c>
+      <c r="E45" s="3">
         <v>854800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1380500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>967900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1171100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1286200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1509600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1349800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1121600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9086300</v>
+      </c>
+      <c r="E46" s="3">
         <v>9103400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9170400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8387800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8315100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8740900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9400300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7771400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8534500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E47" s="3">
         <v>294100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1768,72 +1872,81 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2821100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2336200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2239500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2317000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2257600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2092200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2288700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2174600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2076400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1404000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1545600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1347000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1345800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>415200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>377200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>343600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E52" s="3">
         <v>361600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>760300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>541500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>466400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>404600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>433900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>302000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>262900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13689600</v>
+      </c>
+      <c r="E54" s="3">
         <v>13499400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13715900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12593400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12385000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11652900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12500100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10591600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11033800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5108300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5147200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5122300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4484900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4248300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4561200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4747800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3705300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4294900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E58" s="3">
         <v>632600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>65200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>36800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>419500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1953700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1817700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2102800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1958200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2258700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3958000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2872100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2048000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1950900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7211100</v>
+      </c>
+      <c r="E60" s="3">
         <v>7597500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7268100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6504600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6572200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6755100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7656700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6172800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6288200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2689100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2421900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2897600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2890600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2709400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2026000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2074700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1657300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2157800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>958300</v>
+      </c>
+      <c r="E62" s="3">
         <v>507600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>531600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>519900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>497900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>475600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>567100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>514700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>607600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10858500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10527000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10697300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9948800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9814100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9292100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10337100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8344800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8749800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2902400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3012000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3144100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3572600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3892200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4336300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4937100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5302700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5579700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2831200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2972400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3018600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2644500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2570900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2360800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2163100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2246800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2284000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E81" s="3">
         <v>93400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>428500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>319600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>444100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>365600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>277100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>488800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>748100</v>
+      </c>
+      <c r="E83" s="3">
         <v>765000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>555400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>609700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>515400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>540500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>464500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>566400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>521900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1533300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2971000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3866300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3822100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1136400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>794000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1216500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1115400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>804300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-461700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-725600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-562000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-525100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-510600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-347400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-609600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-489000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-437200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2279000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3252900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3710900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4269800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1396400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-242200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-783900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-697200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-481400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-508500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-187800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-242100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>249600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-516000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-410800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-339600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-522200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-28000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>17500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-30900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E102" s="3">
         <v>224200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-358300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>223100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>68800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-230100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>223600</v>
+        <v>321300</v>
       </c>
       <c r="E14" s="3">
         <v>113300</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1062200</v>
+        <v>1045300</v>
       </c>
       <c r="E21" s="3">
-        <v>883100</v>
+        <v>1092700</v>
       </c>
       <c r="F21" s="3">
-        <v>1253700</v>
+        <v>1199400</v>
       </c>
       <c r="G21" s="3">
-        <v>994200</v>
+        <v>1088500</v>
       </c>
       <c r="H21" s="3">
-        <v>1093200</v>
+        <v>1068000</v>
       </c>
       <c r="I21" s="3">
-        <v>1211600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1287500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>944900</v>
       </c>
       <c r="K21" s="3">
         <v>964100</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -1921,7 +1921,7 @@
         <v>1327000</v>
       </c>
       <c r="E49" s="3">
-        <v>1404000</v>
+        <v>1404100</v>
       </c>
       <c r="F49" s="3">
         <v>1545600</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24209900</v>
+        <v>24124000</v>
       </c>
       <c r="E8" s="3">
-        <v>26210500</v>
+        <v>24210000</v>
       </c>
       <c r="F8" s="3">
+        <v>26211000</v>
+      </c>
+      <c r="G8" s="3">
         <v>25441100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23862900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24418900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26147900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26108600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23569500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29343000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22681500</v>
+        <v>22349000</v>
       </c>
       <c r="E9" s="3">
-        <v>24593700</v>
+        <v>22681000</v>
       </c>
       <c r="F9" s="3">
+        <v>24594000</v>
+      </c>
+      <c r="G9" s="3">
         <v>23778400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22303200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22810800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24602600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24609700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44374800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27825100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1528400</v>
+        <v>1775000</v>
       </c>
       <c r="E10" s="3">
-        <v>1616800</v>
+        <v>1529000</v>
       </c>
       <c r="F10" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1662700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1559700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1608100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1545300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1498900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-20805300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1518000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>321300</v>
+        <v>138000</v>
       </c>
       <c r="E14" s="3">
-        <v>113300</v>
+        <v>321200</v>
       </c>
       <c r="F14" s="3">
+        <v>233300</v>
+      </c>
+      <c r="G14" s="3">
         <v>90700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>49400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-8000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>75300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>227400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-20000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>64100</v>
+        <v>62000</v>
       </c>
       <c r="E15" s="3">
-        <v>74400</v>
+        <v>64000</v>
       </c>
       <c r="F15" s="3">
+        <v>74000</v>
+      </c>
+      <c r="G15" s="3">
         <v>78600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>81400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>66000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23967000</v>
+        <v>23262000</v>
       </c>
       <c r="E17" s="3">
-        <v>25844900</v>
+        <v>23884200</v>
       </c>
       <c r="F17" s="3">
+        <v>25854000</v>
+      </c>
+      <c r="G17" s="3">
         <v>24797400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23392600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23871400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25425900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25646200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23184400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28768300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>242800</v>
+        <v>862000</v>
       </c>
       <c r="E18" s="3">
-        <v>365600</v>
+        <v>325800</v>
       </c>
       <c r="F18" s="3">
+        <v>357000</v>
+      </c>
+      <c r="G18" s="3">
         <v>643700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>470400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>547500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>722100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>462400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>385100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>574700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>54400</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
-        <v>-37800</v>
+        <v>-28000</v>
       </c>
       <c r="F20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1045300</v>
+        <v>1433000</v>
       </c>
       <c r="E21" s="3">
-        <v>1092700</v>
+        <v>1045900</v>
       </c>
       <c r="F21" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1199400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1088500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1068000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1287500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>944900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>964100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1096700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E22" s="3">
         <v>138800</v>
       </c>
-      <c r="E22" s="3">
-        <v>145700</v>
-      </c>
       <c r="F22" s="3">
+        <v>146000</v>
+      </c>
+      <c r="G22" s="3">
         <v>123100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>108000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>98000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>76400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>79900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68900</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158500</v>
+        <v>714000</v>
       </c>
       <c r="E23" s="3">
-        <v>182100</v>
+        <v>159000</v>
       </c>
       <c r="F23" s="3">
+        <v>182000</v>
+      </c>
+      <c r="G23" s="3">
         <v>520900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>370800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>454700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>670700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>328800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>574700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70900</v>
+        <v>101000</v>
       </c>
       <c r="E24" s="3">
-        <v>88700</v>
+        <v>71000</v>
       </c>
       <c r="F24" s="3">
+        <v>89000</v>
+      </c>
+      <c r="G24" s="3">
         <v>92400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>51300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87600</v>
+        <v>613000</v>
       </c>
       <c r="E26" s="3">
-        <v>93400</v>
+        <v>88000</v>
       </c>
       <c r="F26" s="3">
+        <v>93000</v>
+      </c>
+      <c r="G26" s="3">
         <v>428500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>319600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>444100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>365600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>302500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>520800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87600</v>
+        <v>613000</v>
       </c>
       <c r="E27" s="3">
-        <v>93400</v>
+        <v>88000</v>
       </c>
       <c r="F27" s="3">
+        <v>93000</v>
+      </c>
+      <c r="G27" s="3">
         <v>428500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>319600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>444100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>365600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>302500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>520800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,26 +1405,29 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1376,14 +1436,17 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-25500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-32000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-54400</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
-        <v>37800</v>
+        <v>28000</v>
       </c>
       <c r="F32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87600</v>
+        <v>613000</v>
       </c>
       <c r="E33" s="3">
-        <v>93400</v>
+        <v>88000</v>
       </c>
       <c r="F33" s="3">
+        <v>93000</v>
+      </c>
+      <c r="G33" s="3">
         <v>428500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>319600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>444100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>365600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>277100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>488800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87600</v>
+        <v>613000</v>
       </c>
       <c r="E35" s="3">
-        <v>93400</v>
+        <v>88000</v>
       </c>
       <c r="F35" s="3">
+        <v>93000</v>
+      </c>
+      <c r="G35" s="3">
         <v>428500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>319600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>444100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>365600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>277100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>488800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2637000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1922700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1696600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1472400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1830700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1607600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1628400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1593700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1587100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1174400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,154 +1800,169 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>343900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4241000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2718400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2829200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2517700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2192700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2044800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2337500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2698000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2112000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2593800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3895000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3785100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3722900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3799800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3396500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3491700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3488800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3599000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2722500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3300800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E45" s="3">
         <v>660100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>854800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1380500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>967900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1171100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1286200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1509600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1349800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1121600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11363000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9086300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9103400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9170400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8387800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8315100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8740900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9400300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7771400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8534500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E47" s="3">
         <v>128100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>294100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -1875,78 +1979,87 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2739000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2821100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2336200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2239500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2317000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2257600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2092200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2288700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2174600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2076400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1327000</v>
       </c>
-      <c r="E49" s="3">
-        <v>1404100</v>
-      </c>
       <c r="F49" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="G49" s="3">
         <v>1545600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1347000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1345800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>415200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>377200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>343600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>328200</v>
+      </c>
+      <c r="E52" s="3">
         <v>327200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>361600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>760300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>541500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>466400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>404600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>433900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>302000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>262900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15836000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13689600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13499400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13715900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12593400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12385000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11652900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12500100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10591600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11033800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5247000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5108300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5147200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5122300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4484900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4248300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4561200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4747800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3705300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4294900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E58" s="3">
         <v>149100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>632600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>65200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>419500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1953700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1817700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2102800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1958200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2258700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3958000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2872100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2048000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1950900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7834000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7211100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7597500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7268100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6504600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6572200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6755100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7656700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6172800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6288200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3515000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2689100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2421900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2897600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2890600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2709400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2026000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2074700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1657300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2157800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="E62" s="3">
         <v>958300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>507600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>531600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>519900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>497900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>475600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>567100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>514700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>607600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10858500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10527000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10697300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9948800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9814100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9292100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10337100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8344800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8749800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2289000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2902400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3012000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3144100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3572600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3892200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4336300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4937100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5302700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5579700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3436000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2831200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2972400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3018600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2644500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2570900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2360800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2163100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2246800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2284000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87600</v>
+        <v>613000</v>
       </c>
       <c r="E81" s="3">
-        <v>93400</v>
+        <v>88000</v>
       </c>
       <c r="F81" s="3">
+        <v>93000</v>
+      </c>
+      <c r="G81" s="3">
         <v>428500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>319600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>444100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>365600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>277100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>488800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E83" s="3">
         <v>748100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>765000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>555400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>609700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>515400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>540500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>464500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>566400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>521900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1533300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2971000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3866300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3822100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1136400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>794000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1216500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1115400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>804300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-461700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-725600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-562000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-525100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-510600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-347400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-609600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-489000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-437200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2279000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3252900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3710900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4269800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1396400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-242200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-783900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-697200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-481400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>743000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-508500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-187800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-242100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>249600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-516000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-410800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-339600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-522200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-28000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>17500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-30900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E102" s="3">
         <v>226100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>224200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-358300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>223100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-230100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -2034,7 +2034,7 @@
         <v>1327000</v>
       </c>
       <c r="F49" s="3">
-        <v>1404000</v>
+        <v>1404100</v>
       </c>
       <c r="G49" s="3">
         <v>1545600</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -2034,7 +2034,7 @@
         <v>1327000</v>
       </c>
       <c r="F49" s="3">
-        <v>1404100</v>
+        <v>1404000</v>
       </c>
       <c r="G49" s="3">
         <v>1545600</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1433000</v>
+        <v>1612100</v>
       </c>
       <c r="E21" s="3">
-        <v>1045900</v>
+        <v>1062800</v>
       </c>
       <c r="F21" s="3">
-        <v>1093000</v>
+        <v>883400</v>
       </c>
       <c r="G21" s="3">
-        <v>1199400</v>
+        <v>1253700</v>
       </c>
       <c r="H21" s="3">
-        <v>1088500</v>
+        <v>994200</v>
       </c>
       <c r="I21" s="3">
-        <v>1068000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1287500</v>
+        <v>1093200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>944900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>569000</v>
+        <v>748100</v>
       </c>
       <c r="E83" s="3">
-        <v>748100</v>
+        <v>765000</v>
       </c>
       <c r="F83" s="3">
-        <v>765000</v>
+        <v>555400</v>
       </c>
       <c r="G83" s="3">
-        <v>555400</v>
+        <v>609700</v>
       </c>
       <c r="H83" s="3">
-        <v>609700</v>
+        <v>515400</v>
       </c>
       <c r="I83" s="3">
-        <v>515400</v>
-      </c>
-      <c r="J83" s="3">
         <v>540500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>464500</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>144000</v>
+        <v>-1533300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1533300</v>
+        <v>-2971000</v>
       </c>
       <c r="F89" s="3">
-        <v>-2971000</v>
+        <v>-3866300</v>
       </c>
       <c r="G89" s="3">
-        <v>-3866300</v>
+        <v>-3822100</v>
       </c>
       <c r="H89" s="3">
-        <v>-3822100</v>
+        <v>1136400</v>
       </c>
       <c r="I89" s="3">
-        <v>1136400</v>
+        <v>794000</v>
       </c>
       <c r="J89" s="3">
-        <v>794000</v>
+        <v>1216500</v>
       </c>
       <c r="K89" s="3">
         <v>1216500</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-351000</v>
+        <v>-461700</v>
       </c>
       <c r="E91" s="3">
-        <v>-461700</v>
+        <v>-725600</v>
       </c>
       <c r="F91" s="3">
-        <v>-725600</v>
+        <v>-562000</v>
       </c>
       <c r="G91" s="3">
-        <v>-562000</v>
+        <v>-525100</v>
       </c>
       <c r="H91" s="3">
-        <v>-525100</v>
+        <v>-510600</v>
       </c>
       <c r="I91" s="3">
-        <v>-510600</v>
+        <v>-347400</v>
       </c>
       <c r="J91" s="3">
-        <v>-347400</v>
+        <v>-609600</v>
       </c>
       <c r="K91" s="3">
         <v>-609600</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-202000</v>
+        <v>2279000</v>
       </c>
       <c r="E94" s="3">
-        <v>2279000</v>
+        <v>3252900</v>
       </c>
       <c r="F94" s="3">
-        <v>3252900</v>
+        <v>3710900</v>
       </c>
       <c r="G94" s="3">
-        <v>3710900</v>
+        <v>4269800</v>
       </c>
       <c r="H94" s="3">
-        <v>4269800</v>
+        <v>-1396400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1396400</v>
-      </c>
-      <c r="J94" s="3">
         <v>-242200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-783900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>743000</v>
+        <v>-508500</v>
       </c>
       <c r="E100" s="3">
-        <v>-508500</v>
+        <v>-29700</v>
       </c>
       <c r="F100" s="3">
-        <v>-29700</v>
+        <v>-187800</v>
       </c>
       <c r="G100" s="3">
-        <v>-187800</v>
+        <v>-242100</v>
       </c>
       <c r="H100" s="3">
-        <v>-242100</v>
+        <v>249600</v>
       </c>
       <c r="I100" s="3">
-        <v>249600</v>
-      </c>
-      <c r="J100" s="3">
         <v>-516000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-410800</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29000</v>
+        <v>-11200</v>
       </c>
       <c r="E101" s="3">
-        <v>-11200</v>
+        <v>-28000</v>
       </c>
       <c r="F101" s="3">
-        <v>-28000</v>
+        <v>-15100</v>
       </c>
       <c r="G101" s="3">
-        <v>-15100</v>
+        <v>17500</v>
       </c>
       <c r="H101" s="3">
-        <v>17500</v>
+        <v>-10500</v>
       </c>
       <c r="I101" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J101" s="3">
         <v>-1100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-15100</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>714000</v>
+        <v>226100</v>
       </c>
       <c r="E102" s="3">
-        <v>226100</v>
+        <v>224200</v>
       </c>
       <c r="F102" s="3">
-        <v>224200</v>
+        <v>-358300</v>
       </c>
       <c r="G102" s="3">
-        <v>-358300</v>
+        <v>223100</v>
       </c>
       <c r="H102" s="3">
-        <v>223100</v>
+        <v>-20800</v>
       </c>
       <c r="I102" s="3">
-        <v>-20800</v>
+        <v>34700</v>
       </c>
       <c r="J102" s="3">
-        <v>34700</v>
+        <v>6600</v>
       </c>
       <c r="K102" s="3">
         <v>6600</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26041000</v>
+      </c>
+      <c r="E8" s="3">
         <v>24124000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24210000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26211000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25441100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23862900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24418900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26147900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26108600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23569500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29343000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24094000</v>
+      </c>
+      <c r="E9" s="3">
         <v>22349000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22681000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24594000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23778400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22303200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22810800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24602600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24609700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44374800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27825100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1947000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1775000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1529000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1617000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1662700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1559700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1608100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1545300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1498900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-20805300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1518000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E14" s="3">
         <v>138000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>321200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>233300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>90700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>49400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-8000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>75300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>227400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-20000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E15" s="3">
         <v>62000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>64000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>74000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>78600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>81400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>66000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>29500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24844000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23262000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23884200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25854000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24797400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23392600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23871400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25425900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25646200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23184400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28768300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="E18" s="3">
         <v>862000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>325800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>357000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>643700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>470400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>547500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>722100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>462400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>385100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>574700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-28000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1612100</v>
+        <v>1682000</v>
       </c>
       <c r="E21" s="3">
-        <v>1062800</v>
+        <v>1433000</v>
       </c>
       <c r="F21" s="3">
-        <v>883400</v>
+        <v>1045900</v>
       </c>
       <c r="G21" s="3">
-        <v>1253700</v>
+        <v>1093000</v>
       </c>
       <c r="H21" s="3">
-        <v>994200</v>
+        <v>1199400</v>
       </c>
       <c r="I21" s="3">
-        <v>1093200</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1088500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>944900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>964100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1096700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E22" s="3">
         <v>150000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>138800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>146000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>123100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>108000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>98000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>76400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>79900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68900</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E23" s="3">
         <v>714000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>159000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>182000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>520900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>370800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>454700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>670700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>328800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>574700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E24" s="3">
         <v>101000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>71000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>89000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>92400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>51300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>69900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E26" s="3">
         <v>613000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>88000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>93000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>428500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>319600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>444100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>365600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>302500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>520800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E27" s="3">
         <v>613000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>88000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>93000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>428500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>319600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>444100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>365600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>302500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>520800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1439,14 +1499,17 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-25500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-32000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>28000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E33" s="3">
         <v>613000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>88000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>93000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>428500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>319600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>444100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>365600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>488800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E35" s="3">
         <v>613000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>88000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>93000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>428500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>319600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>444100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>365600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>488800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1819,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2637000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1922700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1696600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1472400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1830700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1607600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1628400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1593700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1587100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1174400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,169 +1892,184 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>343900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3890000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4241000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2718400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2829200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2517700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2192700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2044800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2337500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2698000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2112000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2593800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6580000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3895000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3785100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3722900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3799800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3396500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3491700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3488800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3599000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2722500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3300800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E45" s="3">
         <v>590000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>660100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>854800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1380500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>967900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1171100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1286200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1509600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1349800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1121600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14337000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11363000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9086300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9103400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9170400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8387800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8315100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8740900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9400300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7771400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8534500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E47" s="3">
         <v>102800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>128100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>294100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -1982,84 +2086,93 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2762000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2739000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2821100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2336200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2239500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2317000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2257600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2092200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2288700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2174600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2076400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1303000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1327000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1404000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1545600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1347000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1345800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>415200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>377200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>343600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>341700</v>
+      </c>
+      <c r="E52" s="3">
         <v>328200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>327200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>361600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>760300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>541500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>466400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>404600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>433900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>302000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>262900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19325000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15836000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13689600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13499400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13715900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12593400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12385000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11652900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12500100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10591600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11033800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6254000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5247000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5108300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5147200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5122300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4484900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4248300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4561200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4747800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3705300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4294900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>949000</v>
+      </c>
+      <c r="E58" s="3">
         <v>268000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>149100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>632600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>65200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>419500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3508000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2319000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1953700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1817700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2102800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1958200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2258700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3958000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2872100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2048000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1950900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10711000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7834000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7211100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7597500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7268100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6504600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6572200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6755100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7656700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6172800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6288200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3515000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2689100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2421900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2897600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2890600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2709400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2026000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2074700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1657300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2157800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1051000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>958300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>507600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>531600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>519900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>497900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>475600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>567100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>514700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>607600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15196000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12400000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10858500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10527000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10697300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9948800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9814100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9292100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10337100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8344800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8749800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1353000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2289000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2902400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3012000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3144100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3572600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3892200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4336300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4937100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5302700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5579700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4129000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3436000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2831200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2972400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3018600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2644500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2570900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2360800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2163100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2246800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2284000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E81" s="3">
         <v>613000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>88000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>93000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>428500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>319600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>444100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>365600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>488800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>569000</v>
+      </c>
+      <c r="F83" s="3">
         <v>748100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>765000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>555400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>609700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>515400</v>
       </c>
-      <c r="I83" s="3">
-        <v>540500</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>464500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>566400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>521900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>144000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1533300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2971000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3866300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3822100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1136400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>794000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1216500</v>
       </c>
       <c r="K89" s="3">
         <v>1216500</v>
       </c>
       <c r="L89" s="3">
+        <v>1216500</v>
+      </c>
+      <c r="M89" s="3">
         <v>1115400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>804300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-461700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-725600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-562000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-525100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-510600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-347400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-609600</v>
       </c>
       <c r="K91" s="3">
         <v>-609600</v>
       </c>
       <c r="L91" s="3">
+        <v>-609600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-489000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-437200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-951000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="F94" s="3">
         <v>2279000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>3252900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3710900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>4269800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1396400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-242200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-783900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-697200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-481400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>743000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-508500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-29700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-187800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-242100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>249600</v>
       </c>
-      <c r="I100" s="3">
-        <v>-516000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-410800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-339600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-522200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-11200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-28000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-15100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>17500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-10500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-30900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>714000</v>
+      </c>
+      <c r="F102" s="3">
         <v>226100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>224200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-358300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>223100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-20800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>6600</v>
       </c>
       <c r="K102" s="3">
         <v>6600</v>
       </c>
       <c r="L102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M102" s="3">
         <v>68800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-230100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -2147,7 +2147,7 @@
         <v>1327000</v>
       </c>
       <c r="G49" s="3">
-        <v>1404000</v>
+        <v>1404100</v>
       </c>
       <c r="H49" s="3">
         <v>1545600</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1682000</v>
+        <v>1767000</v>
       </c>
       <c r="E21" s="3">
-        <v>1433000</v>
+        <v>1612100</v>
       </c>
       <c r="F21" s="3">
-        <v>1045900</v>
+        <v>1062800</v>
       </c>
       <c r="G21" s="3">
-        <v>1093000</v>
+        <v>883400</v>
       </c>
       <c r="H21" s="3">
-        <v>1199400</v>
+        <v>1253700</v>
       </c>
       <c r="I21" s="3">
-        <v>1088500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1068000</v>
+        <v>994200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>1327000</v>
       </c>
       <c r="G49" s="3">
-        <v>1404100</v>
+        <v>1404000</v>
       </c>
       <c r="H49" s="3">
         <v>1545600</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>484000</v>
+        <v>569000</v>
       </c>
       <c r="E83" s="3">
-        <v>569000</v>
+        <v>748100</v>
       </c>
       <c r="F83" s="3">
-        <v>748100</v>
+        <v>765000</v>
       </c>
       <c r="G83" s="3">
-        <v>765000</v>
+        <v>555400</v>
       </c>
       <c r="H83" s="3">
-        <v>555400</v>
+        <v>609700</v>
       </c>
       <c r="I83" s="3">
-        <v>609700</v>
-      </c>
-      <c r="J83" s="3">
         <v>515400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1024000</v>
+        <v>144000</v>
       </c>
       <c r="E89" s="3">
-        <v>144000</v>
+        <v>-1533300</v>
       </c>
       <c r="F89" s="3">
-        <v>-1533300</v>
+        <v>-2971000</v>
       </c>
       <c r="G89" s="3">
-        <v>-2971000</v>
+        <v>-3866300</v>
       </c>
       <c r="H89" s="3">
-        <v>-3866300</v>
+        <v>-3822100</v>
       </c>
       <c r="I89" s="3">
-        <v>-3822100</v>
+        <v>1136400</v>
       </c>
       <c r="J89" s="3">
-        <v>1136400</v>
+        <v>794000</v>
       </c>
       <c r="K89" s="3">
         <v>1216500</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-443000</v>
+        <v>-351000</v>
       </c>
       <c r="E91" s="3">
-        <v>-351000</v>
+        <v>-461700</v>
       </c>
       <c r="F91" s="3">
-        <v>-461700</v>
+        <v>-725600</v>
       </c>
       <c r="G91" s="3">
-        <v>-725600</v>
+        <v>-562000</v>
       </c>
       <c r="H91" s="3">
-        <v>-562000</v>
+        <v>-525100</v>
       </c>
       <c r="I91" s="3">
-        <v>-525100</v>
+        <v>-510600</v>
       </c>
       <c r="J91" s="3">
-        <v>-510600</v>
+        <v>-347400</v>
       </c>
       <c r="K91" s="3">
         <v>-609600</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-951000</v>
+        <v>-202000</v>
       </c>
       <c r="E94" s="3">
-        <v>-202000</v>
+        <v>2279000</v>
       </c>
       <c r="F94" s="3">
-        <v>2279000</v>
+        <v>3252900</v>
       </c>
       <c r="G94" s="3">
-        <v>3252900</v>
+        <v>3710900</v>
       </c>
       <c r="H94" s="3">
-        <v>3710900</v>
+        <v>4269800</v>
       </c>
       <c r="I94" s="3">
-        <v>4269800</v>
-      </c>
-      <c r="J94" s="3">
         <v>-1396400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>280000</v>
+        <v>743000</v>
       </c>
       <c r="E100" s="3">
-        <v>743000</v>
+        <v>-508500</v>
       </c>
       <c r="F100" s="3">
-        <v>-508500</v>
+        <v>-29700</v>
       </c>
       <c r="G100" s="3">
-        <v>-29700</v>
+        <v>-187800</v>
       </c>
       <c r="H100" s="3">
-        <v>-187800</v>
+        <v>-242100</v>
       </c>
       <c r="I100" s="3">
-        <v>-242100</v>
-      </c>
-      <c r="J100" s="3">
         <v>249600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26000</v>
+        <v>29000</v>
       </c>
       <c r="E101" s="3">
-        <v>29000</v>
+        <v>-11200</v>
       </c>
       <c r="F101" s="3">
-        <v>-11200</v>
+        <v>-28000</v>
       </c>
       <c r="G101" s="3">
-        <v>-28000</v>
+        <v>-15100</v>
       </c>
       <c r="H101" s="3">
-        <v>-15100</v>
+        <v>17500</v>
       </c>
       <c r="I101" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J101" s="3">
         <v>-10500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>327000</v>
+        <v>714000</v>
       </c>
       <c r="E102" s="3">
-        <v>714000</v>
+        <v>226100</v>
       </c>
       <c r="F102" s="3">
-        <v>226100</v>
+        <v>224200</v>
       </c>
       <c r="G102" s="3">
-        <v>224200</v>
+        <v>-358300</v>
       </c>
       <c r="H102" s="3">
-        <v>-358300</v>
+        <v>223100</v>
       </c>
       <c r="I102" s="3">
-        <v>223100</v>
+        <v>-20800</v>
       </c>
       <c r="J102" s="3">
-        <v>-20800</v>
+        <v>34700</v>
       </c>
       <c r="K102" s="3">
         <v>6600</v>

--- a/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FLEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30346000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26041000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24124000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24210000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26211000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25441100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23862900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24418900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26147900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26108600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23569500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29343000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28058000</v>
+      </c>
+      <c r="E9" s="3">
         <v>24094000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22349000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22681000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24594000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23778400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22303200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22810800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24602600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24609700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44374800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27825100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2288000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1947000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1775000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1529000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1617000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1662700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1559700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1608100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1545300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1498900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-20805300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1518000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-133000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>138000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>321200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>233300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>90700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>49400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-8000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>75300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>227400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-20000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E15" s="3">
         <v>68000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>62000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>64000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>74000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>78600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>81400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>66000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>29500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29162000</v>
+      </c>
+      <c r="E17" s="3">
         <v>24844000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23262000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23884200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25854000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24797400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23392600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23871400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25425900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25646200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23184400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28768300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1184000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1197000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>862000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>325800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>357000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>643700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>470400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>547500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>722100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>462400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>385100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>574700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1767000</v>
+        <v>1662000</v>
       </c>
       <c r="E21" s="3">
-        <v>1612100</v>
+        <v>1682000</v>
       </c>
       <c r="F21" s="3">
-        <v>1062800</v>
+        <v>1433000</v>
       </c>
       <c r="G21" s="3">
-        <v>883400</v>
+        <v>1045900</v>
       </c>
       <c r="H21" s="3">
-        <v>1253700</v>
+        <v>1093000</v>
       </c>
       <c r="I21" s="3">
-        <v>994200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1199400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1088500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>944900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>964100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1096700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E22" s="3">
         <v>153000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>150000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>138800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>146000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>123100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>108000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>98000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>76400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>79900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68900</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1045000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>714000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>159000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>182000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>520900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>370800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>454700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>670700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>328800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>574700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E24" s="3">
         <v>105000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>101000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>71000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>89000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>92400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>51300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E26" s="3">
         <v>940000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>613000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>88000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>93000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>428500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>319600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>444100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>365600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>302500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>520800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E27" s="3">
         <v>936000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>613000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>88000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>93000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>428500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>319600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>444100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>365600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>302500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>520800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1502,14 +1562,17 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-25500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-32000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E33" s="3">
         <v>936000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>613000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>88000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>93000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>428500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>319600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>444100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>365600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>277100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>488800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E35" s="3">
         <v>936000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>613000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>88000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>93000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>428500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>319600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>444100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>365600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>277100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>488800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,47 +1905,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3294000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2964000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2637000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1922700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1696600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1472400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1830700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1607600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1628400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1593700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1587100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1174400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,184 +1984,199 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>343900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4280000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3890000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4241000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2718400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2829200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2517700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2192700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2044800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2337500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2698000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2112000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2593800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7530000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6580000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3895000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3785100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3722900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3799800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3396500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3491700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3488800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3599000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2722500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3300800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E45" s="3">
         <v>903000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>590000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>660100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>854800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1380500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>967900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1171100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1286200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1509600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1349800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1121600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16021000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14337000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11363000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9086300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9103400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9170400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8387800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8315100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8740900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9400300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7771400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8534500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E47" s="3">
         <v>131300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>128100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>294100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2089,90 +2193,99 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2957000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2762000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2739000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2821100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2336200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2239500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2317000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2257600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2092200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2288700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2174600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2076400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1659000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1753000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1303000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1327000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1404000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1545600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1347000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1345800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>415200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>377200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>343600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E52" s="3">
         <v>341700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>328200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>327200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>361600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>760300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>541500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>466400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>404600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>433900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>302000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>262900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21395000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19325000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15836000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13689600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13499400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13715900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12593400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12385000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11652900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12500100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10591600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11033800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5930000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6254000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5247000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5108300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5147200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5122300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4484900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4248300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4561200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4747800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3705300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4294900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E58" s="3">
         <v>949000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>268000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>149100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>632600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>65200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>419500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4775000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3508000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2319000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1953700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1817700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2102800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1958200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2258700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3958000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2872100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2048000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1950900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10855000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10711000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7834000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7211100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7597500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7268100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6504600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6572200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6755100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7656700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6172800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6288200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3691000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3248000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3515000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2689100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2421900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2897600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2890600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2709400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2026000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2074700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1657300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2157800</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1143000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1159000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1051000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>958300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>507600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>531600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>519900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>497900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>475600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>567100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>514700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>607600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16044000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15196000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12400000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10858500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10527000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10697300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9948800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9814100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9292100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10337100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8344800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8749800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-560000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1353000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2289000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2902400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3012000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3144100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3572600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3892200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4336300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4937100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5302700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5579700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5351000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4129000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3436000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2831200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2972400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3018600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2644500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2570900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2360800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2163100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2246800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2284000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E81" s="3">
         <v>936000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>613000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>88000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>93000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>428500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>319600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>444100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>365600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>277100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>488800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>484000</v>
+      </c>
+      <c r="F83" s="3">
         <v>569000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>748100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>765000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>555400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>609700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>515400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>464500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>566400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>521900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="F89" s="3">
         <v>144000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1533300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2971000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3866300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3822100</v>
       </c>
-      <c r="I89" s="3">
-        <v>1136400</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>794000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1216500</v>
       </c>
       <c r="L89" s="3">
         <v>1216500</v>
       </c>
       <c r="M89" s="3">
+        <v>1216500</v>
+      </c>
+      <c r="N89" s="3">
         <v>1115400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>804300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-635000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-351000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-461700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-725600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-562000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-525100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-510600</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-347400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-609600</v>
       </c>
       <c r="L91" s="3">
         <v>-609600</v>
       </c>
       <c r="M91" s="3">
+        <v>-609600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-489000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-437200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-604000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-951000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-202000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2279000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3252900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>3710900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>4269800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1396400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-783900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-697200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-481400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F100" s="3">
         <v>743000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-508500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-29700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-187800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-242100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>249600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-410800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-339600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-522200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F101" s="3">
         <v>29000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-11200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-28000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-15100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>17500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-15100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-30900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>327000</v>
+      </c>
+      <c r="F102" s="3">
         <v>714000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>226100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>224200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-358300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>223100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>6600</v>
       </c>
       <c r="L102" s="3">
         <v>6600</v>
       </c>
       <c r="M102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N102" s="3">
         <v>68800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-230100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
